--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/43/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/43/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.3447344734473448</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1515.515515515516</v>
+        <v>692.0992099209922</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03373373373373374</v>
+        <v>0.09663966396639664</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8398398398398398</v>
+        <v>0.21002100210021</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1745.745745745746</v>
+        <v>1372.747274727473</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.1311311311312</v>
+        <v>717.3717371737174</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>331.3313313313313</v>
+        <v>31.97209720972097</v>
       </c>
     </row>
   </sheetData>
